--- a/database/industries/urea/shapdis/product/yearly.xlsx
+++ b/database/industries/urea/shapdis/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\urea\shapdis\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\urea\shapdis\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CD170B-7541-4418-91C3-07FA918C185D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="33">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,6 +37,21 @@
     <t>مقدار تولید</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1391/09</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1392/09</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1393/06</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1394/06</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1395/06</t>
+  </si>
+  <si>
     <t>دوازده ماهه منتهی به 1396/06</t>
   </si>
   <si>
@@ -57,13 +73,13 @@
     <t>تن</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>اوره صنعتی</t>
   </si>
   <si>
     <t>سایر / تخفیفات</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>جمع</t>
@@ -108,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -278,7 +294,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -290,7 +306,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -337,6 +353,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -372,6 +405,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -523,17 +573,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:N68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -542,8 +592,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -554,8 +609,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -566,8 +626,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -576,8 +641,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -588,8 +658,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -600,8 +675,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -610,8 +690,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -632,8 +717,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -642,100 +742,165 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>1224309</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1021438</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1294169</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1327084</v>
+      </c>
+      <c r="J10" s="9">
         <v>1318343</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>1747727</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>1781163</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>1723663</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>2088913</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>2004669</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1734277</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="11">
+        <v>2000480</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1998305</v>
+      </c>
+      <c r="J11" s="11">
         <v>1939994</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>2571955</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>2841763</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>2818450</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>3292678</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>3228978</v>
+      </c>
+      <c r="F13" s="13">
+        <v>2755715</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>3294649</v>
+      </c>
+      <c r="I13" s="13">
+        <v>3325389</v>
+      </c>
+      <c r="J13" s="13">
         <v>3258337</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>4319682</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>4622926</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>4542113</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>5381591</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -744,8 +909,13 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -754,8 +924,13 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -764,10 +939,15 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -786,8 +966,23 @@
       <c r="I17" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -796,172 +991,282 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9">
+        <v>76751</v>
+      </c>
+      <c r="F19" s="9">
+        <v>37001</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="9">
+        <v>174400</v>
+      </c>
+      <c r="I19" s="9">
+        <v>165609</v>
+      </c>
+      <c r="J19" s="9">
         <v>204538</v>
       </c>
-      <c r="F19" s="9">
+      <c r="K19" s="9">
         <v>289428</v>
       </c>
-      <c r="G19" s="9">
+      <c r="L19" s="9">
         <v>163023</v>
       </c>
-      <c r="H19" s="9">
+      <c r="M19" s="9">
         <v>149004</v>
       </c>
-      <c r="I19" s="9">
+      <c r="N19" s="9">
         <v>226604</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D20" s="11"/>
-      <c r="E20" s="11" t="s">
-        <v>14</v>
+      <c r="E20" s="11">
+        <v>2129410</v>
       </c>
       <c r="F20" s="11">
+        <v>1812244</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="11">
+        <v>1809383</v>
+      </c>
+      <c r="I20" s="11">
+        <v>2113029</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="11">
         <v>2570612</v>
       </c>
-      <c r="G20" s="11">
+      <c r="L20" s="11">
         <v>2556223</v>
       </c>
-      <c r="H20" s="11">
+      <c r="M20" s="11">
         <v>2905328</v>
       </c>
-      <c r="I20" s="11">
+      <c r="N20" s="11">
         <v>3401990</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="9">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="11">
-        <v>0</v>
-      </c>
-      <c r="G22" s="11">
-        <v>0</v>
-      </c>
-      <c r="H22" s="11">
-        <v>0</v>
-      </c>
-      <c r="I22" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0</v>
+      </c>
+      <c r="L22" s="11">
+        <v>0</v>
+      </c>
+      <c r="M22" s="11">
+        <v>0</v>
+      </c>
+      <c r="N22" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="9">
+      <c r="E23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="9">
         <v>499461</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="11">
+        <v>1393178</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11">
-        <v>1393178</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="14" t="s">
-        <v>15</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15">
+        <v>2206161</v>
+      </c>
+      <c r="F25" s="15">
+        <v>1849245</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0</v>
+      </c>
+      <c r="H25" s="15">
+        <v>1983783</v>
+      </c>
+      <c r="I25" s="15">
+        <v>2278638</v>
+      </c>
+      <c r="J25" s="15">
         <v>2097177</v>
       </c>
-      <c r="F25" s="15">
+      <c r="K25" s="15">
         <v>2860040</v>
       </c>
-      <c r="G25" s="15">
+      <c r="L25" s="15">
         <v>2719246</v>
       </c>
-      <c r="H25" s="15">
+      <c r="M25" s="15">
         <v>3054332</v>
       </c>
-      <c r="I25" s="15">
+      <c r="N25" s="15">
         <v>3628594</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -970,8 +1275,13 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -980,8 +1290,13 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -990,10 +1305,15 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -1012,8 +1332,23 @@
       <c r="I29" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1022,174 +1357,284 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>496807</v>
+      </c>
+      <c r="F31" s="9">
+        <v>383551</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="9">
+        <v>2266908</v>
+      </c>
+      <c r="I31" s="9">
+        <v>1753596</v>
+      </c>
+      <c r="J31" s="9">
         <v>1587369</v>
       </c>
-      <c r="F31" s="9">
+      <c r="K31" s="9">
         <v>3873227</v>
       </c>
-      <c r="G31" s="9">
+      <c r="L31" s="9">
         <v>2956563</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>2724151</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>9358732</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11">
+        <v>15649662</v>
+      </c>
+      <c r="F32" s="11">
+        <v>15854242</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="11">
+        <v>15886313</v>
+      </c>
+      <c r="I32" s="11">
+        <v>15293821</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="11">
+        <v>30160635</v>
+      </c>
+      <c r="L32" s="11">
+        <v>48938521</v>
+      </c>
+      <c r="M32" s="11">
+        <v>75615874</v>
+      </c>
+      <c r="N32" s="11">
+        <v>188039949</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="11">
-        <v>30160635</v>
-      </c>
-      <c r="G32" s="11">
-        <v>48938521</v>
-      </c>
-      <c r="H32" s="11">
-        <v>75615874</v>
-      </c>
-      <c r="I32" s="11">
-        <v>188039949</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="C33" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="9">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9">
-        <v>0</v>
-      </c>
-      <c r="H33" s="9">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="11">
-        <v>0</v>
-      </c>
-      <c r="G34" s="11">
-        <v>0</v>
-      </c>
-      <c r="H34" s="11">
-        <v>0</v>
-      </c>
-      <c r="I34" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0</v>
+      </c>
+      <c r="N34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="9">
+      <c r="E35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="9">
         <v>3115836</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="11">
+        <v>11014227</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B37" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11">
-        <v>11014227</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="14" t="s">
-        <v>15</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
+        <v>16146469</v>
+      </c>
+      <c r="F37" s="15">
+        <v>16237793</v>
+      </c>
+      <c r="G37" s="15">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15">
+        <v>18153221</v>
+      </c>
+      <c r="I37" s="15">
+        <v>17047417</v>
+      </c>
+      <c r="J37" s="15">
         <v>15717432</v>
       </c>
-      <c r="F37" s="15">
+      <c r="K37" s="15">
         <v>34033862</v>
       </c>
-      <c r="G37" s="15">
+      <c r="L37" s="15">
         <v>51895084</v>
       </c>
-      <c r="H37" s="15">
+      <c r="M37" s="15">
         <v>78340025</v>
       </c>
-      <c r="I37" s="15">
+      <c r="N37" s="15">
         <v>197398681</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1198,8 +1643,13 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1208,8 +1658,13 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1218,10 +1673,15 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1240,8 +1700,23 @@
       <c r="I41" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1250,152 +1725,247 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
+        <v>6472971</v>
+      </c>
+      <c r="F43" s="9">
+        <v>10365963</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="9">
+        <v>12998326</v>
+      </c>
+      <c r="I43" s="9">
+        <v>10588772</v>
+      </c>
+      <c r="J43" s="9">
         <v>7760754</v>
       </c>
-      <c r="F43" s="9">
+      <c r="K43" s="9">
         <v>13382351</v>
       </c>
-      <c r="G43" s="9">
+      <c r="L43" s="9">
         <v>18135864</v>
       </c>
-      <c r="H43" s="9">
+      <c r="M43" s="9">
         <v>18282402</v>
       </c>
-      <c r="I43" s="9">
+      <c r="N43" s="9">
         <v>41299942</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
-        <v>14</v>
+      <c r="E44" s="11">
+        <v>7349295</v>
       </c>
       <c r="F44" s="11">
+        <v>8748404</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="11">
+        <v>8779961</v>
+      </c>
+      <c r="I44" s="11">
+        <v>7237866</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="11">
         <v>11732862</v>
       </c>
-      <c r="G44" s="11">
+      <c r="L44" s="11">
         <v>19144856</v>
       </c>
-      <c r="H44" s="11">
+      <c r="M44" s="11">
         <v>26026622</v>
       </c>
-      <c r="I44" s="11">
+      <c r="N44" s="11">
         <v>55273516</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="9">
-        <v>0</v>
-      </c>
-      <c r="G45" s="9">
-        <v>0</v>
-      </c>
-      <c r="H45" s="9">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="9">
+        <v>0</v>
+      </c>
+      <c r="L45" s="9">
+        <v>0</v>
+      </c>
+      <c r="M45" s="9">
+        <v>0</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="11">
-        <v>0</v>
-      </c>
-      <c r="G46" s="11">
-        <v>0</v>
-      </c>
-      <c r="H46" s="11">
-        <v>0</v>
-      </c>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="9">
+      <c r="E47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="9">
         <v>6238397</v>
       </c>
-      <c r="F47" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D48" s="11"/>
-      <c r="E48" s="11">
+      <c r="E48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="11">
         <v>7905829</v>
       </c>
-      <c r="F48" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1404,8 +1974,13 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1414,8 +1989,13 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1424,10 +2004,15 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -1446,8 +2031,23 @@
       <c r="I52" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1456,106 +2056,171 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="9">
+        <v>17</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="9">
         <v>-1842590</v>
       </c>
-      <c r="G54" s="9">
+      <c r="L54" s="9">
         <v>-1838880</v>
       </c>
-      <c r="H54" s="9">
+      <c r="M54" s="9">
         <v>-1732608</v>
       </c>
-      <c r="I54" s="9">
+      <c r="N54" s="9">
         <v>-5872563</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="11">
+        <v>17</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="11">
         <v>-14736648</v>
       </c>
-      <c r="G55" s="11">
+      <c r="L55" s="11">
         <v>-24699844</v>
       </c>
-      <c r="H55" s="11">
+      <c r="M55" s="11">
         <v>-29261679</v>
       </c>
-      <c r="I55" s="11">
+      <c r="N55" s="11">
         <v>-64838014</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="9">
-        <v>0</v>
-      </c>
-      <c r="G56" s="9">
-        <v>0</v>
-      </c>
-      <c r="H56" s="9">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" s="9">
+        <v>0</v>
+      </c>
+      <c r="L56" s="9">
+        <v>0</v>
+      </c>
+      <c r="M56" s="9">
+        <v>0</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="11">
-        <v>0</v>
-      </c>
-      <c r="G57" s="11">
-        <v>0</v>
-      </c>
-      <c r="H57" s="11">
-        <v>0</v>
-      </c>
-      <c r="I57" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" s="11">
+        <v>0</v>
+      </c>
+      <c r="L57" s="11">
+        <v>0</v>
+      </c>
+      <c r="M57" s="11">
+        <v>0</v>
+      </c>
+      <c r="N57" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
@@ -1563,19 +2228,34 @@
         <v>0</v>
       </c>
       <c r="F58" s="15">
+        <v>0</v>
+      </c>
+      <c r="G58" s="15">
+        <v>0</v>
+      </c>
+      <c r="H58" s="15">
+        <v>0</v>
+      </c>
+      <c r="I58" s="15">
+        <v>0</v>
+      </c>
+      <c r="J58" s="15">
+        <v>0</v>
+      </c>
+      <c r="K58" s="15">
         <v>-16579238</v>
       </c>
-      <c r="G58" s="15">
+      <c r="L58" s="15">
         <v>-26538724</v>
       </c>
-      <c r="H58" s="15">
+      <c r="M58" s="15">
         <v>-30994287</v>
       </c>
-      <c r="I58" s="15">
+      <c r="N58" s="15">
         <v>-70710577</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1584,8 +2264,13 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1594,8 +2279,13 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1604,10 +2294,15 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -1626,8 +2321,23 @@
       <c r="I62" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1636,106 +2346,171 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" s="9">
+        <v>17</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" s="9">
         <v>2030637</v>
       </c>
-      <c r="G64" s="9">
+      <c r="L64" s="9">
         <v>1117683</v>
       </c>
-      <c r="H64" s="9">
+      <c r="M64" s="9">
         <v>991543</v>
       </c>
-      <c r="I64" s="9">
+      <c r="N64" s="9">
         <v>3486169</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="11">
+        <v>17</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" s="11">
         <v>15423987</v>
       </c>
-      <c r="G65" s="11">
+      <c r="L65" s="11">
         <v>24238677</v>
       </c>
-      <c r="H65" s="11">
+      <c r="M65" s="11">
         <v>46354195</v>
       </c>
-      <c r="I65" s="11">
+      <c r="N65" s="11">
         <v>123201935</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" s="9">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M66" s="9">
+        <v>0</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" s="11">
-        <v>0</v>
-      </c>
-      <c r="I67" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M67" s="11">
+        <v>0</v>
+      </c>
+      <c r="N67" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
@@ -1743,15 +2518,30 @@
         <v>0</v>
       </c>
       <c r="F68" s="15">
+        <v>0</v>
+      </c>
+      <c r="G68" s="15">
+        <v>0</v>
+      </c>
+      <c r="H68" s="15">
+        <v>0</v>
+      </c>
+      <c r="I68" s="15">
+        <v>0</v>
+      </c>
+      <c r="J68" s="15">
+        <v>0</v>
+      </c>
+      <c r="K68" s="15">
         <v>17454624</v>
       </c>
-      <c r="G68" s="15">
+      <c r="L68" s="15">
         <v>25356360</v>
       </c>
-      <c r="H68" s="15">
+      <c r="M68" s="15">
         <v>47345738</v>
       </c>
-      <c r="I68" s="15">
+      <c r="N68" s="15">
         <v>126688104</v>
       </c>
     </row>
